--- a/SHORTKEYS/ShortKeys.xlsx
+++ b/SHORTKEYS/ShortKeys.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19290" windowHeight="8325"/>
+    <workbookView windowWidth="19560" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Shortkeys" sheetId="1" r:id="rId1"/>
+    <sheet name="Google" sheetId="1" r:id="rId1"/>
+    <sheet name="Text" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>Ctrl+L или ALT+D или F6</t>
   </si>
@@ -164,6 +165,87 @@
   </si>
   <si>
     <t>открыть ссылку в новом окне.</t>
+  </si>
+  <si>
+    <t>Двойной щелчек левой кнопкой на  слове</t>
+  </si>
+  <si>
+    <t>выделить слово целиком</t>
+  </si>
+  <si>
+    <t>Ctrl + A</t>
+  </si>
+  <si>
+    <t>Выделить всё</t>
+  </si>
+  <si>
+    <t>Ctrl + C</t>
+  </si>
+  <si>
+    <t>Копировать</t>
+  </si>
+  <si>
+    <t>Ctrl + X</t>
+  </si>
+  <si>
+    <t>Вырезать</t>
+  </si>
+  <si>
+    <t>Ctrl + V</t>
+  </si>
+  <si>
+    <t>Вставить</t>
+  </si>
+  <si>
+    <t>Ctrl + ←</t>
+  </si>
+  <si>
+    <t>Переход по словам в тексте. Работает не только в текстовых редакторах. Например, очень удобно использовать в адресной строке браузера</t>
+  </si>
+  <si>
+    <t>Ctrl + →</t>
+  </si>
+  <si>
+    <t>Shift + ←</t>
+  </si>
+  <si>
+    <t>Выделение текста</t>
+  </si>
+  <si>
+    <t>Shift + →</t>
+  </si>
+  <si>
+    <t>Shift + ↑</t>
+  </si>
+  <si>
+    <t>Shift + ↓</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + ←</t>
+  </si>
+  <si>
+    <t>Выделение текста по словам</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + →</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Перемещение в начало-конец строки текста</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Ctrl + Home</t>
+  </si>
+  <si>
+    <t>Ctrl + End</t>
+  </si>
+  <si>
+    <t>Перемещение в начало-конец документа</t>
   </si>
 </sst>
 </file>
@@ -171,17 +253,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,6 +293,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -199,8 +377,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,127 +403,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,91 +439,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,101 +629,63 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD2D2D2"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -554,11 +706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,15 +726,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +741,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,17 +780,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,150 +794,171 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1105,7 +1278,7 @@
   <sheetPr/>
   <dimension ref="B3:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1473,7 @@
       </c>
     </row>
     <row r="26" ht="60" spans="2:3">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C26" t="s">
@@ -1319,4 +1492,182 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C2:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="30.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customHeight="1"/>
+    <row r="4" ht="37" customHeight="1" spans="3:4">
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="3:4">
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="3:4">
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="3:4">
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="3:4">
+      <c r="C13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="3:4">
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="3:4">
+      <c r="C16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" spans="3:4">
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>